--- a/Day14/Test1.xlsx
+++ b/Day14/Test1.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="14265" windowHeight="9735" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14535" yWindow="3615" windowWidth="14265" windowHeight="9735" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -88,6 +88,19 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -106,28 +119,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -140,9 +137,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -488,10 +487,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -505,217 +504,210 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Principle</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Rate of Interest</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Period</t>
         </is>
       </c>
-      <c r="D1" s="8" t="n"/>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Maturity Value</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Expected</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Result</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>20000</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>year(s)</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Simple Interest</t>
         </is>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="2" t="n">
         <v>24000</v>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="H2" s="9" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>40000</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>year(s)</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Simple Interest</t>
         </is>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="2" t="n">
         <v>70000</v>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="H3" s="9" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>50000</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>month(s)</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Simple Interest</t>
         </is>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="2" t="n">
         <v>51250</v>
       </c>
-      <c r="G4" s="4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="H4" s="9" t="inlineStr">
+      <c r="H4" s="8" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>75000</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>month(s)</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>Simple Interest</t>
         </is>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="2" t="n">
         <v>76500</v>
       </c>
-      <c r="G5" s="4" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="H5" s="9" t="inlineStr">
+      <c r="H5" s="8" t="inlineStr">
         <is>
           <t>Passed</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>75000</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>day(s)</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Simple Interest</t>
         </is>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="2" t="n">
         <v>75045.32000000001</v>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="H6" s="10" t="inlineStr">
+      <c r="H6" s="9" t="inlineStr">
         <is>
           <t>Failed</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>ho</t>
         </is>
       </c>
     </row>
